--- a/task/session1/Ресурсы/DataDictionary_Template.xlsx
+++ b/task/session1/Ресурсы/DataDictionary_Template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ADA77D-1913-4957-B94A-29F100213182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B449619B-60B8-41FD-BCB0-8FB39449AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -446,9 +446,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,9 +486,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,26 +521,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,26 +556,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,14 +739,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="20" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="7.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5" customHeight="1">
@@ -880,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8">
+    <row r="10" spans="1:5" ht="45">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>37</v>
@@ -953,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
@@ -1042,7 +1008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2">
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
@@ -1171,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72">
+    <row r="32" spans="1:5" ht="75">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
         <v>51</v>
@@ -1253,7 +1219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="57.6">
+    <row r="38" spans="1:5" ht="75">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
         <v>52</v>
